--- a/results/mp/logistic/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,91 +52,88 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -497,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7294520547945206</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -616,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4391534391534391</v>
+        <v>0.4867724867724867</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3604651162790697</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C5">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2013422818791946</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>0.8571428571428571</v>
@@ -762,17 +759,41 @@
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.1150793650793651</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>223</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,12 +805,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>0.8275862068965517</v>
@@ -815,16 +836,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.823943661971831</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,47 +857,47 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L10">
+        <v>86</v>
+      </c>
+      <c r="M10">
+        <v>86</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>20</v>
-      </c>
-      <c r="K10">
-        <v>0.8207547169811321</v>
-      </c>
-      <c r="L10">
-        <v>87</v>
-      </c>
-      <c r="M10">
-        <v>87</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,21 +909,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -914,21 +935,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -940,12 +961,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>0.7804878048780488</v>
@@ -971,16 +992,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7575757575757576</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.75625</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,15 +1039,15 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L17">
         <v>35</v>
@@ -1044,21 +1065,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1070,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1096,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L20">
         <v>30</v>
       </c>
-      <c r="K20">
-        <v>0.65</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
       <c r="M20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6441176470588236</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L21">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M21">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6063829787234043</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1174,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5941422594142259</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L24">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1226,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5694915254237288</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L25">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M25">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5428571428571428</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.54</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1330,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5056179775280899</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1356,59 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="L30">
-        <v>28</v>
-      </c>
-      <c r="M30">
-        <v>29</v>
-      </c>
-      <c r="N30">
-        <v>0.97</v>
-      </c>
-      <c r="O30">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="L31">
-        <v>28</v>
-      </c>
-      <c r="M31">
-        <v>28</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
